--- a/Excel/Arquivos aulas/aula-imagens-formas.xlsx
+++ b/Excel/Arquivos aulas/aula-imagens-formas.xlsx
@@ -8,38 +8,204 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Arquivos aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E717A460-6EEE-4AF1-9878-64A3C8858F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93736789-65C0-407E-860C-5FC540DE870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="615" windowWidth="19305" windowHeight="14580" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
+    <workbookView xWindow="9900" yWindow="480" windowWidth="18585" windowHeight="14580" activeTab="2" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="5" r:id="rId1"/>
     <sheet name="Lançamentos" sheetId="6" r:id="rId2"/>
     <sheet name="Relatório" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Registro Diário de Movimentação</t>
+  </si>
+  <si>
+    <t>Dia</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P01 - Detalhamento do Dia</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Evolução Mensal do Estoque</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>P02</t>
+  </si>
+  <si>
+    <t>P03</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P05</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Janeiro</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
+  </si>
+  <si>
+    <t>Dezembro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.89999084444715716"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.749992370372631"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -65,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -190,11 +356,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -211,6 +514,88 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -309,13 +694,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -330,8 +715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="523875"/>
-          <a:ext cx="1457325" cy="444499"/>
+          <a:off x="252942" y="527051"/>
+          <a:ext cx="1459441" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
@@ -652,13 +1037,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>82549</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -674,8 +1059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="257175" y="523875"/>
-          <a:ext cx="1457325" cy="444499"/>
+          <a:off x="259556" y="519114"/>
+          <a:ext cx="1462088" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
@@ -871,49 +1256,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>40217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>456818</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30693</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D5102F-187C-4DCE-9D4C-E4D7C5030E0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="4111" b="8450"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="1116542"/>
-          <a:ext cx="3409568" cy="3038476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1214,49 +1556,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>40217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>456818</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30693</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5219D2A-6F0A-4892-A856-3398F2E649E5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="4111" b="8450"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4324350" y="1116542"/>
-          <a:ext cx="3409568" cy="3038476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1561,8 +1860,967 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47667FFE-528C-4348-9B16-28928D3F93B4}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="16" width="11.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" customWidth="1"/>
+    <col min="18" max="16384" width="11.7109375" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="12"/>
+    </row>
+    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4868DFED-639F-445C-B89A-768AC5140FA3}">
+  <dimension ref="A1:Q46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" style="22" customWidth="1"/>
+    <col min="2" max="10" width="11.7109375" style="22" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.7109375" style="22" customWidth="1"/>
+    <col min="17" max="17" width="3.7109375" style="22" customWidth="1"/>
+    <col min="18" max="16384" width="11.7109375" style="22" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="21"/>
+    </row>
+    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+      <c r="C4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="61">
+        <v>45418</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="29"/>
+      <c r="C5" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="30"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+      <c r="C6" s="37">
+        <v>45413</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34">
+        <v>950</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="45">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>249</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="34">
+        <v>249</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="38">
+        <v>45414</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="32">
+        <v>200</v>
+      </c>
+      <c r="F7" s="34">
+        <f>F6+D7-E7</f>
+        <v>750</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="46">
+        <v>2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>600</v>
+      </c>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34">
+        <v>849</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="29"/>
+      <c r="C8" s="38">
+        <v>45415</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="32">
+        <v>250</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" ref="F8:F20" si="0">F7+D8-E8</f>
+        <v>500</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="46">
+        <v>3</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32">
+        <v>25</v>
+      </c>
+      <c r="K8" s="34">
+        <v>824</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="29"/>
+      <c r="C9" s="38">
+        <v>45416</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="32">
+        <v>95</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="46">
+        <v>4</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
+        <v>39</v>
+      </c>
+      <c r="K9" s="34">
+        <v>785</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="38">
+        <v>45417</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="32">
+        <v>156</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="46">
+        <v>5</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32">
+        <v>10</v>
+      </c>
+      <c r="K10" s="34">
+        <v>775</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="29"/>
+      <c r="C11" s="38">
+        <v>45418</v>
+      </c>
+      <c r="D11" s="43">
+        <v>600</v>
+      </c>
+      <c r="E11" s="32">
+        <v>289</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="46">
+        <v>6</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32">
+        <v>75</v>
+      </c>
+      <c r="K11" s="34">
+        <v>700</v>
+      </c>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="30"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="38">
+        <v>45419</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="32">
+        <v>245</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="46">
+        <v>7</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32">
+        <v>95</v>
+      </c>
+      <c r="K12" s="34">
+        <v>605</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="38">
+        <v>45420</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="32">
+        <v>123</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="46">
+        <v>8</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32">
+        <v>45</v>
+      </c>
+      <c r="K13" s="34">
+        <v>560</v>
+      </c>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="30"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="38">
+        <v>45421</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="32">
+        <v>45</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="46">
+        <v>9</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="34">
+        <v>560</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="38">
+        <v>45422</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="32">
+        <v>79</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="46">
+        <v>10</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="34">
+        <v>560</v>
+      </c>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="29"/>
+      <c r="C16" s="38">
+        <v>45423</v>
+      </c>
+      <c r="D16" s="43">
+        <v>600</v>
+      </c>
+      <c r="E16" s="32">
+        <v>92</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="46">
+        <v>11</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="34">
+        <v>560</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+      <c r="C17" s="38">
+        <v>45424</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="32">
+        <v>235</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="46">
+        <v>12</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="34">
+        <v>560</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+      <c r="C18" s="38">
+        <v>45425</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="32">
+        <v>341</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="46">
+        <v>13</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34">
+        <v>560</v>
+      </c>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+      <c r="C19" s="38">
+        <v>45426</v>
+      </c>
+      <c r="D19" s="43">
+        <v>200</v>
+      </c>
+      <c r="E19" s="32">
+        <v>123</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="46">
+        <v>14</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="34">
+        <v>560</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="39">
+        <v>45427</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="35">
+        <v>50</v>
+      </c>
+      <c r="F20" s="36">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="66">
+        <v>849</v>
+      </c>
+      <c r="J20" s="66">
+        <v>289</v>
+      </c>
+      <c r="K20" s="67">
+        <v>560</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="31"/>
+    </row>
+    <row r="33" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="22" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0B943A-1E94-4669-9B2E-A7EDA570203E}">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,13 +2884,17 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="62">
+        <v>2017</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -1643,13 +2905,27 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="C5" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -1660,13 +2936,27 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="C6" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="49">
+        <v>187</v>
+      </c>
+      <c r="E6" s="49">
+        <v>261</v>
+      </c>
+      <c r="F6" s="49">
+        <v>396</v>
+      </c>
+      <c r="G6" s="49">
+        <v>727</v>
+      </c>
+      <c r="H6" s="49">
+        <v>602</v>
+      </c>
+      <c r="I6" s="50">
+        <v>893</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -1677,13 +2967,27 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="C7" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="52">
+        <v>998</v>
+      </c>
+      <c r="E7" s="52">
+        <v>51</v>
+      </c>
+      <c r="F7" s="52">
+        <v>379</v>
+      </c>
+      <c r="G7" s="52">
+        <v>81</v>
+      </c>
+      <c r="H7" s="52">
+        <v>552</v>
+      </c>
+      <c r="I7" s="53">
+        <v>89</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1694,13 +2998,27 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="C8" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="52">
+        <v>584</v>
+      </c>
+      <c r="E8" s="52">
+        <v>658</v>
+      </c>
+      <c r="F8" s="52">
+        <v>641</v>
+      </c>
+      <c r="G8" s="52">
+        <v>610</v>
+      </c>
+      <c r="H8" s="52">
+        <v>120</v>
+      </c>
+      <c r="I8" s="53">
+        <v>401</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1711,13 +3029,27 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="52">
+        <v>917</v>
+      </c>
+      <c r="E9" s="52">
+        <v>63</v>
+      </c>
+      <c r="F9" s="52">
+        <v>139</v>
+      </c>
+      <c r="G9" s="52">
+        <v>82</v>
+      </c>
+      <c r="H9" s="52">
+        <v>247</v>
+      </c>
+      <c r="I9" s="53">
+        <v>524</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -1728,13 +3060,27 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="52">
+        <v>155</v>
+      </c>
+      <c r="E10" s="52">
+        <v>171</v>
+      </c>
+      <c r="F10" s="52">
+        <v>63</v>
+      </c>
+      <c r="G10" s="52">
+        <v>980</v>
+      </c>
+      <c r="H10" s="52">
+        <v>351</v>
+      </c>
+      <c r="I10" s="53">
+        <v>85</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -1745,13 +3091,27 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="C11" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="52">
+        <v>452</v>
+      </c>
+      <c r="E11" s="52">
+        <v>471</v>
+      </c>
+      <c r="F11" s="52">
+        <v>915</v>
+      </c>
+      <c r="G11" s="52">
+        <v>462</v>
+      </c>
+      <c r="H11" s="52">
+        <v>950</v>
+      </c>
+      <c r="I11" s="53">
+        <v>775</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -1762,13 +3122,27 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="C12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="52">
+        <v>52</v>
+      </c>
+      <c r="E12" s="52">
+        <v>708</v>
+      </c>
+      <c r="F12" s="52">
+        <v>363</v>
+      </c>
+      <c r="G12" s="52">
+        <v>717</v>
+      </c>
+      <c r="H12" s="52">
+        <v>824</v>
+      </c>
+      <c r="I12" s="53">
+        <v>904</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -1779,13 +3153,27 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="C13" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="52">
+        <v>975</v>
+      </c>
+      <c r="E13" s="52">
+        <v>250</v>
+      </c>
+      <c r="F13" s="52">
+        <v>143</v>
+      </c>
+      <c r="G13" s="52">
+        <v>303</v>
+      </c>
+      <c r="H13" s="52">
+        <v>847</v>
+      </c>
+      <c r="I13" s="53">
+        <v>292</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1796,13 +3184,27 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="52">
+        <v>705</v>
+      </c>
+      <c r="E14" s="52">
+        <v>854</v>
+      </c>
+      <c r="F14" s="52">
+        <v>786</v>
+      </c>
+      <c r="G14" s="52">
+        <v>65</v>
+      </c>
+      <c r="H14" s="52">
+        <v>416</v>
+      </c>
+      <c r="I14" s="53">
+        <v>574</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -1813,13 +3215,27 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="C15" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="52">
+        <v>369</v>
+      </c>
+      <c r="E15" s="52">
+        <v>656</v>
+      </c>
+      <c r="F15" s="52">
+        <v>582</v>
+      </c>
+      <c r="G15" s="52">
+        <v>628</v>
+      </c>
+      <c r="H15" s="52">
+        <v>741</v>
+      </c>
+      <c r="I15" s="53">
+        <v>246</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -1830,13 +3246,27 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="C16" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="52">
+        <v>84</v>
+      </c>
+      <c r="E16" s="52">
+        <v>199</v>
+      </c>
+      <c r="F16" s="52">
+        <v>214</v>
+      </c>
+      <c r="G16" s="52">
+        <v>20</v>
+      </c>
+      <c r="H16" s="52">
+        <v>340</v>
+      </c>
+      <c r="I16" s="53">
+        <v>772</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -1847,13 +3277,27 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="C17" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="54">
+        <v>982</v>
+      </c>
+      <c r="E17" s="54">
+        <v>409</v>
+      </c>
+      <c r="F17" s="54">
+        <v>97</v>
+      </c>
+      <c r="G17" s="54">
+        <v>355</v>
+      </c>
+      <c r="H17" s="54">
+        <v>589</v>
+      </c>
+      <c r="I17" s="55">
+        <v>607</v>
+      </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1913,374 +3357,6 @@
       <c r="O20" s="8"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4868DFED-639F-445C-B89A-768AC5140FA3}">
-  <dimension ref="A1:Q45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="11.7109375" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-    </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2295,380 +3371,10 @@
     <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0B943A-1E94-4669-9B2E-A7EDA570203E}">
-  <dimension ref="A1:Q45"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="11.7109375" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Excel/Arquivos aulas/aula-imagens-formas.xlsx
+++ b/Excel/Arquivos aulas/aula-imagens-formas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Arquivos aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93736789-65C0-407E-860C-5FC540DE870F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5471E6-49FD-47B0-948D-CA9A3404BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="480" windowWidth="18585" windowHeight="14580" activeTab="2" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
+    <workbookView xWindow="9900" yWindow="480" windowWidth="18585" windowHeight="14580" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="5" r:id="rId1"/>
@@ -130,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -566,18 +566,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -592,10 +580,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47667FFE-528C-4348-9B16-28928D3F93B4}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2291,21 +2291,21 @@
     </row>
     <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="29"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="60" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="18"/>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="61">
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="57">
         <v>45418</v>
       </c>
       <c r="L4" s="18"/>
@@ -2772,16 +2772,16 @@
         <v>27</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="66">
+      <c r="I20" s="62">
         <v>849</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="62">
         <v>289</v>
       </c>
-      <c r="K20" s="67">
+      <c r="K20" s="63">
         <v>560</v>
       </c>
       <c r="L20" s="17"/>
@@ -2819,9 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0B943A-1E94-4669-9B2E-A7EDA570203E}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2884,15 +2882,15 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
-      <c r="I4" s="62">
+      <c r="I4" s="58">
         <v>2017</v>
       </c>
       <c r="J4" s="5"/>
@@ -2905,25 +2903,25 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="60" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="5"/>
@@ -3277,7 +3275,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="65" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="54">

--- a/Excel/Arquivos aulas/aula-imagens-formas.xlsx
+++ b/Excel/Arquivos aulas/aula-imagens-formas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xhenr\Desktop\Ciência de dados\Excel\Arquivos aulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5471E6-49FD-47B0-948D-CA9A3404BFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF9B18-A9A9-40B5-B9E0-088D14459892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="480" windowWidth="18585" windowHeight="14580" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{ECDCAC71-1147-4EDC-BDC7-3A66B2EB50D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -124,6 +124,33 @@
   <si>
     <t>Dezembro</t>
   </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>&lt;= 320</t>
+  </si>
+  <si>
+    <t>&lt; e &lt;= 550</t>
+  </si>
+  <si>
+    <t>&gt; 550</t>
+  </si>
+  <si>
+    <t>Máximo:</t>
+  </si>
+  <si>
+    <t>&lt;= 100</t>
+  </si>
+  <si>
+    <t>Mínimo:</t>
+  </si>
+  <si>
+    <t>&gt; 900</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +237,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +286,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -493,11 +567,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -596,11 +793,325 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1860,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47667FFE-528C-4348-9B16-28928D3F93B4}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2384,7 +2895,6 @@
         <v>200</v>
       </c>
       <c r="F7" s="34">
-        <f>F6+D7-E7</f>
         <v>750</v>
       </c>
       <c r="G7" s="18"/>
@@ -2414,7 +2924,6 @@
         <v>250</v>
       </c>
       <c r="F8" s="34">
-        <f t="shared" ref="F8:F20" si="0">F7+D8-E8</f>
         <v>500</v>
       </c>
       <c r="G8" s="18"/>
@@ -2444,7 +2953,6 @@
         <v>95</v>
       </c>
       <c r="F9" s="34">
-        <f t="shared" si="0"/>
         <v>405</v>
       </c>
       <c r="G9" s="18"/>
@@ -2474,7 +2982,6 @@
         <v>156</v>
       </c>
       <c r="F10" s="34">
-        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="G10" s="18"/>
@@ -2506,7 +3013,6 @@
         <v>289</v>
       </c>
       <c r="F11" s="34">
-        <f t="shared" si="0"/>
         <v>560</v>
       </c>
       <c r="G11" s="18"/>
@@ -2536,7 +3042,6 @@
         <v>245</v>
       </c>
       <c r="F12" s="34">
-        <f t="shared" si="0"/>
         <v>315</v>
       </c>
       <c r="G12" s="18"/>
@@ -2566,7 +3071,6 @@
         <v>123</v>
       </c>
       <c r="F13" s="34">
-        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="G13" s="18"/>
@@ -2596,7 +3100,6 @@
         <v>45</v>
       </c>
       <c r="F14" s="34">
-        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="G14" s="18"/>
@@ -2624,7 +3127,6 @@
         <v>79</v>
       </c>
       <c r="F15" s="34">
-        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G15" s="18"/>
@@ -2654,7 +3156,6 @@
         <v>92</v>
       </c>
       <c r="F16" s="34">
-        <f t="shared" si="0"/>
         <v>576</v>
       </c>
       <c r="G16" s="18"/>
@@ -2682,7 +3183,6 @@
         <v>235</v>
       </c>
       <c r="F17" s="34">
-        <f t="shared" si="0"/>
         <v>341</v>
       </c>
       <c r="G17" s="18"/>
@@ -2710,7 +3210,6 @@
         <v>341</v>
       </c>
       <c r="F18" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="18"/>
@@ -2740,7 +3239,6 @@
         <v>123</v>
       </c>
       <c r="F19" s="34">
-        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="G19" s="18"/>
@@ -2768,7 +3266,6 @@
         <v>50</v>
       </c>
       <c r="F20" s="36">
-        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G20" s="17"/>
@@ -2819,7 +3316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0B943A-1E94-4669-9B2E-A7EDA570203E}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2891,12 +3388,14 @@
       <c r="G4" s="47"/>
       <c r="H4" s="47"/>
       <c r="I4" s="58">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="K4" s="70">
+        <v>2024</v>
+      </c>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
@@ -2925,9 +3424,11 @@
         <v>15</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="K5" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="95"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
@@ -2953,12 +3454,21 @@
         <v>602</v>
       </c>
       <c r="I6" s="50">
-        <v>893</v>
+        <v>900</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="K6" s="92">
+        <f>AVERAGE(D6:I6)</f>
+        <v>512.16666666666663</v>
+      </c>
+      <c r="L6" s="98">
+        <f>K6</f>
+        <v>512.16666666666663</v>
+      </c>
+      <c r="M6" s="100">
+        <f>K6</f>
+        <v>512.16666666666663</v>
+      </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
@@ -2969,7 +3479,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="52">
-        <v>998</v>
+        <v>767</v>
       </c>
       <c r="E7" s="52">
         <v>51</v>
@@ -2987,9 +3497,18 @@
         <v>89</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="K7" s="93">
+        <f t="shared" ref="K7:K17" si="0">AVERAGE(D7:I7)</f>
+        <v>319.83333333333331</v>
+      </c>
+      <c r="L7" s="96">
+        <f t="shared" ref="L7:L17" si="1">K7</f>
+        <v>319.83333333333331</v>
+      </c>
+      <c r="M7" s="101">
+        <f t="shared" ref="M7:M17" si="2">K7</f>
+        <v>319.83333333333331</v>
+      </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
@@ -3018,9 +3537,18 @@
         <v>401</v>
       </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="K8" s="93">
+        <f t="shared" si="0"/>
+        <v>502.33333333333331</v>
+      </c>
+      <c r="L8" s="96">
+        <f t="shared" si="1"/>
+        <v>502.33333333333331</v>
+      </c>
+      <c r="M8" s="101">
+        <f t="shared" si="2"/>
+        <v>502.33333333333331</v>
+      </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
@@ -3031,7 +3559,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="52">
-        <v>917</v>
+        <v>800</v>
       </c>
       <c r="E9" s="52">
         <v>63</v>
@@ -3049,9 +3577,18 @@
         <v>524</v>
       </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="93">
+        <f>AVERAGE(D9:I9)</f>
+        <v>309.16666666666669</v>
+      </c>
+      <c r="L9" s="96">
+        <f t="shared" si="1"/>
+        <v>309.16666666666669</v>
+      </c>
+      <c r="M9" s="101">
+        <f t="shared" si="2"/>
+        <v>309.16666666666669</v>
+      </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="6"/>
@@ -3080,9 +3617,18 @@
         <v>85</v>
       </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="K10" s="93">
+        <f t="shared" si="0"/>
+        <v>300.83333333333331</v>
+      </c>
+      <c r="L10" s="96">
+        <f t="shared" si="1"/>
+        <v>300.83333333333331</v>
+      </c>
+      <c r="M10" s="101">
+        <f t="shared" si="2"/>
+        <v>300.83333333333331</v>
+      </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
@@ -3111,9 +3657,18 @@
         <v>775</v>
       </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="K11" s="93">
+        <f t="shared" si="0"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="L11" s="96">
+        <f t="shared" si="1"/>
+        <v>670.83333333333337</v>
+      </c>
+      <c r="M11" s="101">
+        <f t="shared" si="2"/>
+        <v>670.83333333333337</v>
+      </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="6"/>
@@ -3142,9 +3697,18 @@
         <v>904</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="K12" s="93">
+        <f t="shared" si="0"/>
+        <v>594.66666666666663</v>
+      </c>
+      <c r="L12" s="96">
+        <f t="shared" si="1"/>
+        <v>594.66666666666663</v>
+      </c>
+      <c r="M12" s="101">
+        <f t="shared" si="2"/>
+        <v>594.66666666666663</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="6"/>
@@ -3173,9 +3737,18 @@
         <v>292</v>
       </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="K13" s="93">
+        <f t="shared" si="0"/>
+        <v>468.33333333333331</v>
+      </c>
+      <c r="L13" s="96">
+        <f t="shared" si="1"/>
+        <v>468.33333333333331</v>
+      </c>
+      <c r="M13" s="101">
+        <f t="shared" si="2"/>
+        <v>468.33333333333331</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="6"/>
@@ -3204,9 +3777,18 @@
         <v>574</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="K14" s="93">
+        <f t="shared" si="0"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="L14" s="96">
+        <f t="shared" si="1"/>
+        <v>566.66666666666663</v>
+      </c>
+      <c r="M14" s="101">
+        <f t="shared" si="2"/>
+        <v>566.66666666666663</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="6"/>
@@ -3235,9 +3817,18 @@
         <v>246</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="K15" s="93">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
+      <c r="L15" s="96">
+        <f t="shared" si="1"/>
+        <v>537</v>
+      </c>
+      <c r="M15" s="101">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="6"/>
@@ -3266,9 +3857,18 @@
         <v>772</v>
       </c>
       <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="K16" s="93">
+        <f t="shared" si="0"/>
+        <v>271.5</v>
+      </c>
+      <c r="L16" s="96">
+        <f t="shared" si="1"/>
+        <v>271.5</v>
+      </c>
+      <c r="M16" s="101">
+        <f t="shared" si="2"/>
+        <v>271.5</v>
+      </c>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6"/>
@@ -3297,9 +3897,18 @@
         <v>607</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="K17" s="94">
+        <f t="shared" si="0"/>
+        <v>506.5</v>
+      </c>
+      <c r="L17" s="97">
+        <f t="shared" si="1"/>
+        <v>506.5</v>
+      </c>
+      <c r="M17" s="102">
+        <f t="shared" si="2"/>
+        <v>506.5</v>
+      </c>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="6"/>
@@ -3314,46 +3923,102 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="6"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="74"/>
+      <c r="E19" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="85">
+        <v>900</v>
+      </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="K19" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="88" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="74"/>
+      <c r="E20" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="85">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="80"/>
+      <c r="C21" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="81"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="82"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="84"/>
     </row>
     <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3369,12 +4034,63 @@
     <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="D6:I17">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="lessThanOrEqual">
+      <formula>$F$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>$F$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L17">
+    <cfRule type="iconSet" priority="2">
+      <iconSet showValue="0" reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="320" gte="0"/>
+        <cfvo type="num" val="550" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB7A6EEA-44E7-45AE-8084-142207138EF4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB7A6EEA-44E7-45AE-8084-142207138EF4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor theme="1"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M6:M17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>